--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,106 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\linf_pipeline\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7C4BBD-B96D-48F1-81CD-F1FACD81151D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{38ADFE3D-8027-4FEF-A120-C51C284C1612}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="estatistica_qtd_objetos" sheetId="3" r:id="rId1"/>
-    <sheet name="estatistica_tipo_objeto" sheetId="4" r:id="rId2"/>
-    <sheet name="estatistica_celular" sheetId="1" r:id="rId3"/>
-    <sheet name="estatistica_computador" sheetId="2" r:id="rId4"/>
-    <sheet name="tarefas" sheetId="5" r:id="rId5"/>
+    <sheet name="estatistica_qtd_objetos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="estatistica_tipo_objeto" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="estatistica_celular" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="estatistica_computador" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="tarefas" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="recursos" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="capacidades_computador">estatistica_computador!$A$2:$A$1048576</definedName>
     <definedName name="tipos_extracao">estatistica_celular!$A$2:$A$1048576</definedName>
     <definedName name="tipos_objetos">estatistica_tipo_objeto!$A$2:$A$1048576</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t xml:space="preserve">Qtd objetos</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo </t>
+  </si>
+  <si>
+    <t>Computador</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Estragado</t>
+  </si>
+  <si>
+    <t>Bloqueado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extração lógica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extração de sistema de arquivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extração física</t>
+  </si>
+  <si>
+    <t>Capacidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Até 500GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre 500GB e 1TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre 1TB e 2TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acima de 2TB</t>
+  </si>
+  <si>
+    <t>Objeto</t>
+  </si>
   <si>
     <t>Extracao</t>
   </si>
   <si>
-    <t>Quantidade</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Estragado</t>
-  </si>
-  <si>
-    <t>Bloqueado</t>
-  </si>
-  <si>
-    <t>Extração lógica</t>
-  </si>
-  <si>
-    <t>Extração de sistema de arquivos</t>
-  </si>
-  <si>
-    <t>Extração física</t>
-  </si>
-  <si>
-    <t>Capacidade</t>
-  </si>
-  <si>
-    <t>Até 500GB</t>
-  </si>
-  <si>
-    <t>Entre 1TB e 2TB</t>
-  </si>
-  <si>
-    <t>Entre 500GB e 1TB</t>
-  </si>
-  <si>
-    <t>Acima de 2TB</t>
-  </si>
-  <si>
-    <t>Qtd objetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo </t>
-  </si>
-  <si>
-    <t>Computador</t>
-  </si>
-  <si>
-    <t>Celular</t>
+    <t>Tarefa</t>
   </si>
   <si>
     <t>Tempo</t>
   </si>
   <si>
-    <t>Objeto</t>
-  </si>
-  <si>
-    <t>Tarefa</t>
-  </si>
-  <si>
     <t>Higienização</t>
   </si>
   <si>
@@ -110,44 +97,53 @@
     <t>Extração</t>
   </si>
   <si>
-    <t>Gravação de mídia</t>
+    <t xml:space="preserve">Gravação de mídia</t>
   </si>
   <si>
     <t>Imagem</t>
   </si>
   <si>
     <t>Processamento</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Perito</t>
+  </si>
+  <si>
+    <t>UFED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computador processamento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -161,23 +157,23 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="20" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,8 +191,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -238,108 +517,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -347,7 +532,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -373,7 +558,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -425,16 +610,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -450,7 +647,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -481,37 +678,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCA4A8F-8BD3-48F6-BDBB-77214D7938E3}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="2" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -519,7 +709,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -527,7 +717,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -535,7 +725,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -543,7 +733,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -551,7 +741,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -559,7 +749,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -567,7 +757,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -575,7 +765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -583,7 +773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -592,675 +782,751 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA38E3A-B5FC-48F8-8F59-5DDCE7E2C8D8}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="12"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>200</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E077FF4E-A066-4CA4-B51D-845B8C4EB80D}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="29.85546875"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BF4A8C-C888-4321-9A54-34CFACB36CD6}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="20.28515625"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EE44F9-74E3-45F1-94BD-A0E4DDB07B85}">
-  <dimension ref="A1:F41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D29"/>
+    <sheetView topLeftCell="A10" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A23" activeCellId="0" sqref="A23:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="17.28515625"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="2" width="29.85546875"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="16.85546875"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" width="17.28515625"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" width="7.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="4">
+        <v>0.020833333333333332</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="4">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>0.020833333333333332</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="4">
+        <v>0.083333333333333329</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="5">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>0.020833333333333332</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="4">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0.125</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="5">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <v>0.020833333333333332</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="4">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>0.125</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="5">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="4">
+        <v>0.020833333333333332</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="4">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="4">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>0.125</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="5">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="4">
+        <v>0.020833333333333332</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="4">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="4">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>0.125</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="5">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="4">
+        <v>0.020833333333333332</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="4">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="4">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>0.125</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="5">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="4">
+        <v>0.020833333333333332</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="4">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="4">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>0.125</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
         <v>15</v>
-      </c>
-      <c r="C38" t="s">
-        <v>12</v>
       </c>
       <c r="D38" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="5">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="4">
+        <v>0.020833333333333332</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
         <v>15</v>
-      </c>
-      <c r="C39" t="s">
-        <v>12</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="4">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
         <v>15</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="4">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
         <v>15</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <v>0.125</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{319F8376-E264-402C-A4BB-2459E04B614A}">
-      <formula1>tipos_objetos</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{B1712A07-1420-4496-A7AC-C202CE8FCFE5}">
-      <formula1>tipos_extracao</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{165A6FC6-A676-4F82-AE3C-BECEA8FB41D6}">
-      <formula1>capacidades_computador</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
+        <x14:dataValidation xr:uid="{000800BA-00C0-471C-98D8-001300B7004B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>tipos_objetos</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{002D00F5-00BD-4957-AB9C-00FE00C900B5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>tipos_extracao</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00C400A9-002A-4432-935B-001500D500FC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>capacidades_computador</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="25.421875"/>
+    <col bestFit="1" min="2" max="2" width="10.8515625"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,34 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\linf_pipeline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F94E7AC-A0EC-417A-AB64-8A1AF8C9CC88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="estatistica_qtd_objetos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="estatistica_tipo_objeto" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="estatistica_celular" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="estatistica_computador" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="tarefas" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="recursos" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estatistica_qtd_objetos" sheetId="1" r:id="rId1"/>
+    <sheet name="estatistica_tipo_objeto" sheetId="2" r:id="rId2"/>
+    <sheet name="estatistica_celular" sheetId="3" r:id="rId3"/>
+    <sheet name="estatistica_computador" sheetId="4" r:id="rId4"/>
+    <sheet name="tarefas" sheetId="5" r:id="rId5"/>
+    <sheet name="recursos" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="capacidades_computador">estatistica_computador!$A$2:$A$1048576</definedName>
     <definedName name="tipos_extracao">estatistica_celular!$A$2:$A$1048576</definedName>
     <definedName name="tipos_objetos">estatistica_tipo_objeto!$A$2:$A$1048576</definedName>
   </definedNames>
-  <calcPr/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t xml:space="preserve">Qtd objetos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="30">
+  <si>
+    <t>Qtd objetos</t>
   </si>
   <si>
     <t>Quantidade</t>
@@ -52,28 +56,28 @@
     <t>Bloqueado</t>
   </si>
   <si>
-    <t xml:space="preserve">Extração lógica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extração de sistema de arquivos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extração física</t>
+    <t>Extração lógica</t>
+  </si>
+  <si>
+    <t>Extração de sistema de arquivos</t>
+  </si>
+  <si>
+    <t>Extração física</t>
   </si>
   <si>
     <t>Capacidade</t>
   </si>
   <si>
-    <t xml:space="preserve">Até 500GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entre 500GB e 1TB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entre 1TB e 2TB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acima de 2TB</t>
+    <t>Até 500GB</t>
+  </si>
+  <si>
+    <t>Entre 500GB e 1TB</t>
+  </si>
+  <si>
+    <t>Entre 1TB e 2TB</t>
+  </si>
+  <si>
+    <t>Acima de 2TB</t>
   </si>
   <si>
     <t>Objeto</t>
@@ -97,7 +101,7 @@
     <t>Extração</t>
   </si>
   <si>
-    <t xml:space="preserve">Gravação de mídia</t>
+    <t>Gravação de mídia</t>
   </si>
   <si>
     <t>Imagem</t>
@@ -115,33 +119,33 @@
     <t>UFED</t>
   </si>
   <si>
-    <t xml:space="preserve">Computador processamento</t>
+    <t>Computador processamento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -157,23 +161,23 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="20" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,291 +195,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -678,22 +399,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="2" width="11.42578125"/>
+    <col min="1" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,7 +424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -709,7 +432,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -717,7 +440,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -725,7 +448,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -733,7 +456,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -741,7 +464,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -749,7 +472,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -757,7 +480,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -765,7 +488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -773,7 +496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -782,27 +505,26 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="12"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="11.42578125"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -810,7 +532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -818,7 +540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -827,27 +549,26 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="29.85546875"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="11.42578125"/>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -855,7 +576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -863,7 +584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -871,7 +592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -879,7 +600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -887,7 +608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -896,27 +617,26 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="20.28515625"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="11.42578125"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -932,7 +652,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -940,7 +660,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -948,7 +668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -957,30 +677,29 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A23" activeCellId="0" sqref="A23:D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.28515625"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="2" width="29.85546875"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="16.85546875"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="17.28515625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="7.140625"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -997,7 +716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1008,10 +727,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="4">
-        <v>0.020833333333333332</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1022,10 +741,10 @@
         <v>21</v>
       </c>
       <c r="E3" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1036,10 +755,10 @@
         <v>20</v>
       </c>
       <c r="E5" s="4">
-        <v>0.020833333333333332</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1050,11 +769,11 @@
         <v>21</v>
       </c>
       <c r="E6" s="4">
-        <v>0.083333333333333329</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1065,10 +784,10 @@
         <v>20</v>
       </c>
       <c r="E8" s="4">
-        <v>0.020833333333333332</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1079,10 +798,10 @@
         <v>21</v>
       </c>
       <c r="E9" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1093,10 +812,10 @@
         <v>22</v>
       </c>
       <c r="E10" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1110,7 +829,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1121,10 +840,10 @@
         <v>20</v>
       </c>
       <c r="E13" s="4">
-        <v>0.020833333333333332</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1135,10 +854,10 @@
         <v>21</v>
       </c>
       <c r="E14" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1149,10 +868,10 @@
         <v>22</v>
       </c>
       <c r="E15" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1166,7 +885,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1177,10 +896,10 @@
         <v>20</v>
       </c>
       <c r="E18" s="4">
-        <v>0.020833333333333332</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1191,10 +910,10 @@
         <v>21</v>
       </c>
       <c r="E19" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1205,10 +924,10 @@
         <v>22</v>
       </c>
       <c r="E20" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1222,7 +941,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1233,10 +952,10 @@
         <v>20</v>
       </c>
       <c r="E23" s="4">
-        <v>0.020833333333333332</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1247,10 +966,10 @@
         <v>24</v>
       </c>
       <c r="E24" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1261,10 +980,10 @@
         <v>25</v>
       </c>
       <c r="E25" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1278,7 +997,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1289,10 +1008,10 @@
         <v>20</v>
       </c>
       <c r="E28" s="4">
-        <v>0.020833333333333332</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1303,10 +1022,10 @@
         <v>24</v>
       </c>
       <c r="E29" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1317,10 +1036,10 @@
         <v>25</v>
       </c>
       <c r="E30" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1334,7 +1053,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1345,10 +1064,10 @@
         <v>20</v>
       </c>
       <c r="E33" s="4">
-        <v>0.020833333333333332</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1359,10 +1078,10 @@
         <v>24</v>
       </c>
       <c r="E34" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1373,10 +1092,10 @@
         <v>25</v>
       </c>
       <c r="E35" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -1390,7 +1109,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1401,10 +1120,10 @@
         <v>20</v>
       </c>
       <c r="E38" s="4">
-        <v>0.020833333333333332</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1415,10 +1134,10 @@
         <v>24</v>
       </c>
       <c r="E39" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1429,10 +1148,10 @@
         <v>25</v>
       </c>
       <c r="E40" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1447,51 +1166,35 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{000800BA-00C0-471C-98D8-001300B7004B}">
+      <formula1>tipos_objetos</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{002D00F5-00BD-4957-AB9C-00FE00C900B5}">
+      <formula1>tipos_extracao</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{00C400A9-002A-4432-935B-001500D500FC}">
+      <formula1>capacidades_computador</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{000800BA-00C0-471C-98D8-001300B7004B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>tipos_objetos</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002D00F5-00BD-4957-AB9C-00FE00C900B5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>tipos_extracao</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C400A9-002A-4432-935B-001500D500FC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>capacidades_computador</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="25.421875"/>
-    <col bestFit="1" min="2" max="2" width="10.8515625"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1507,7 +1210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1515,7 +1218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1524,9 +1227,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\linf_pipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F94E7AC-A0EC-417A-AB64-8A1AF8C9CC88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4213591-809E-491A-A83D-665B4F545368}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="estatistica_qtd_objetos" sheetId="1" r:id="rId1"/>
-    <sheet name="estatistica_tipo_objeto" sheetId="2" r:id="rId2"/>
-    <sheet name="estatistica_celular" sheetId="3" r:id="rId3"/>
-    <sheet name="estatistica_computador" sheetId="4" r:id="rId4"/>
-    <sheet name="tarefas" sheetId="5" r:id="rId5"/>
-    <sheet name="recursos" sheetId="6" r:id="rId6"/>
+    <sheet name="estatistica_tipo" sheetId="2" r:id="rId2"/>
+    <sheet name="estatistica_subtipo" sheetId="3" r:id="rId3"/>
+    <sheet name="tarefas" sheetId="5" r:id="rId4"/>
+    <sheet name="recursos" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="capacidades_computador">estatistica_computador!$A$2:$A$1048576</definedName>
-    <definedName name="tipos_extracao">estatistica_celular!$A$2:$A$1048576</definedName>
-    <definedName name="tipos_objetos">estatistica_tipo_objeto!$A$2:$A$1048576</definedName>
+    <definedName name="capacidades_computador">#REF!</definedName>
+    <definedName name="recursos">recursos!$A$2:$A$1048576</definedName>
+    <definedName name="tipos_extracao">estatistica_subtipo!$B$2:$B$1048576</definedName>
+    <definedName name="tipos_objeto">estatistica_tipo!$A$2:$A$1048576</definedName>
+    <definedName name="tipos_objetos">estatistica_tipo!$A$2:$A$1048576</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="33">
   <si>
     <t>Qtd objetos</t>
   </si>
@@ -47,9 +48,6 @@
     <t>Celular</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
     <t>Estragado</t>
   </si>
   <si>
@@ -65,9 +63,6 @@
     <t>Extração física</t>
   </si>
   <si>
-    <t>Capacidade</t>
-  </si>
-  <si>
     <t>Até 500GB</t>
   </si>
   <si>
@@ -83,15 +78,9 @@
     <t>Objeto</t>
   </si>
   <si>
-    <t>Extracao</t>
-  </si>
-  <si>
     <t>Tarefa</t>
   </si>
   <si>
-    <t>Tempo</t>
-  </si>
-  <si>
     <t>Higienização</t>
   </si>
   <si>
@@ -120,6 +109,27 @@
   </si>
   <si>
     <t>Computador processamento</t>
+  </si>
+  <si>
+    <t>Subtipo</t>
+  </si>
+  <si>
+    <t>Duração</t>
+  </si>
+  <si>
+    <t>Recurso 1</t>
+  </si>
+  <si>
+    <t>Recurso 2</t>
+  </si>
+  <si>
+    <t>Recurso 3</t>
+  </si>
+  <si>
+    <t>Recurso 4</t>
+  </si>
+  <si>
+    <t>Carregador</t>
   </si>
 </sst>
 </file>
@@ -129,11 +139,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,6 +165,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -171,13 +204,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +446,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +553,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,612 +594,596 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="C3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
+      <c r="C9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A1" xr:uid="{8890820A-3740-4AA2-A262-994D3894D47C}">
+      <formula1>"tipos_objeto"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{399CA8A3-A649-43E3-B0A1-973A0EC05602}">
+      <formula1>tipos_objeto</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D2" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D10" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D11" s="4">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4">
+      <c r="D24" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="4">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D30" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4">
+      <c r="D34" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="4">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="4">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="4">
+        <v>19</v>
+      </c>
+      <c r="D41" s="4">
         <v>0.125</v>
       </c>
     </row>
@@ -1173,20 +1195,22 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{002D00F5-00BD-4957-AB9C-00FE00C900B5}">
       <formula1>tipos_extracao</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{00C400A9-002A-4432-935B-001500D500FC}">
-      <formula1>capacidades_computador</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:H1048576" xr:uid="{94EC4E88-C280-4CE8-A0E5-A3483B526B3A}">
+      <formula1>recursos</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1196,7 +1220,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1204,7 +1228,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -1212,7 +1236,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1220,10 +1244,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,30 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\linf_pipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4213591-809E-491A-A83D-665B4F545368}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8AFBF4A-D7F1-45B5-9019-35F1A538ADB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="estatistica_qtd_objetos" sheetId="1" r:id="rId1"/>
     <sheet name="estatistica_tipo" sheetId="2" r:id="rId2"/>
     <sheet name="estatistica_subtipo" sheetId="3" r:id="rId3"/>
-    <sheet name="tarefas" sheetId="5" r:id="rId4"/>
-    <sheet name="recursos" sheetId="6" r:id="rId5"/>
+    <sheet name="exames" sheetId="5" r:id="rId4"/>
+    <sheet name="etapas" sheetId="7" r:id="rId5"/>
+    <sheet name="recursos" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="capacidades_computador">#REF!</definedName>
+    <definedName name="etapas">etapas!$A$2:$A$1048576</definedName>
     <definedName name="recursos">recursos!$A$2:$A$1048576</definedName>
     <definedName name="tipos_extracao">estatistica_subtipo!$B$2:$B$1048576</definedName>
     <definedName name="tipos_objeto">estatistica_tipo!$A$2:$A$1048576</definedName>
     <definedName name="tipos_objetos">estatistica_tipo!$A$2:$A$1048576</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="42">
   <si>
     <t>Qtd objetos</t>
   </si>
@@ -78,9 +88,6 @@
     <t>Objeto</t>
   </si>
   <si>
-    <t>Tarefa</t>
-  </si>
-  <si>
     <t>Higienização</t>
   </si>
   <si>
@@ -114,22 +121,52 @@
     <t>Subtipo</t>
   </si>
   <si>
-    <t>Duração</t>
-  </si>
-  <si>
-    <t>Recurso 1</t>
-  </si>
-  <si>
-    <t>Recurso 2</t>
-  </si>
-  <si>
-    <t>Recurso 3</t>
-  </si>
-  <si>
-    <t>Recurso 4</t>
-  </si>
-  <si>
     <t>Carregador</t>
+  </si>
+  <si>
+    <t>Etapa</t>
+  </si>
+  <si>
+    <t>Higienizando</t>
+  </si>
+  <si>
+    <t>Buffer carregamento</t>
+  </si>
+  <si>
+    <t>Carregando</t>
+  </si>
+  <si>
+    <t>Vagas</t>
+  </si>
+  <si>
+    <t>Buffer extração</t>
+  </si>
+  <si>
+    <t>Extraindo</t>
+  </si>
+  <si>
+    <t>Buffer processamento</t>
+  </si>
+  <si>
+    <t>Processando</t>
+  </si>
+  <si>
+    <t>Buffer gravação de mídia</t>
+  </si>
+  <si>
+    <t>Gravando mídia</t>
+  </si>
+  <si>
+    <t>Buffer empacotamento</t>
+  </si>
+  <si>
+    <t>Empacotando</t>
+  </si>
+  <si>
+    <t>Tempo mínimo</t>
+  </si>
+  <si>
+    <t>color</t>
   </si>
 </sst>
 </file>
@@ -139,11 +176,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,22 +205,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -192,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -200,28 +229,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF9E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1F0FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE1F0FF"/>
+      <color rgb="FFFFF9E7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -612,7 +680,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -733,461 +801,1770 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:E230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="E2" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11">
+        <f>IF(A3&lt;&gt;"",IF(AND(A3=A1,B3=B1),C1,IF(C1=1,2,1)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11">
+        <f>IF(A4&lt;&gt;"",IF(AND(A4=A2,B4=B2),C2,IF(C2=1,2,1)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E4" s="12">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11">
+        <f>IF(A5&lt;&gt;"",IF(AND(A5=A4,B5=B4),C4,IF(C4=1,2,1)),"")</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11">
+        <f t="shared" ref="C6:C68" si="0">IF(A6&lt;&gt;"",IF(AND(A6=A5,B6=B5),C5,IF(C5=1,2,1)),"")</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E6" s="12">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="12">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E9" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E12" s="12">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="12">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="12">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="12">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E17" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="12">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="12">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E22" s="12">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="12">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E28" s="12">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="12">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="12">
         <v>0.125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="12">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="12">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="E34" s="12">
         <v>0.125</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="4">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="4">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="4">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0.125</v>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="C35" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="11" t="str">
+        <f t="shared" ref="C69:C132" si="1">IF(A69&lt;&gt;"",IF(AND(A69=A68,B69=B68),C68,IF(C68=1,2,1)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="11" t="str">
+        <f t="shared" ref="C133:C196" si="2">IF(A133&lt;&gt;"",IF(AND(A133=A132,B133=B132),C132,IF(C132=1,2,1)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C197" s="11" t="str">
+        <f t="shared" ref="C197:C230" si="3">IF(A197&lt;&gt;"",IF(AND(A197=A196,B197=B196),C196,IF(C196=1,2,1)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C198" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C199" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C200" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C201" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C202" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C203" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C204" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C205" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C206" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C207" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C208" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C209" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C211" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C212" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C213" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C214" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C215" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C216" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C217" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C218" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C219" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C220" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C221" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C222" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C223" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C224" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C225" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C226" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C227" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C228" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C229" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C230" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:E1048576">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C1=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$C1=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{000800BA-00C0-471C-98D8-001300B7004B}">
       <formula1>tipos_objetos</formula1>
@@ -1195,8 +2572,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{002D00F5-00BD-4957-AB9C-00FE00C900B5}">
       <formula1>tipos_extracao</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:H1048576" xr:uid="{94EC4E88-C280-4CE8-A0E5-A3483B526B3A}">
-      <formula1>recursos</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{1118A7A5-BFFF-4517-8454-341ED2B843AB}">
+      <formula1>etapas</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
@@ -1205,6 +2582,121 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81606CBA-E54E-445A-8F3C-E1CB44EA059E}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1220,7 +2712,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1228,7 +2720,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -1236,7 +2728,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1244,15 +2736,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>32</v>
+      <c r="A5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B5">
         <v>4</v>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\linf_pipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8AFBF4A-D7F1-45B5-9019-35F1A538ADB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88613DF0-E916-4B35-9030-2160F33352EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,6 @@
     <definedName name="tipos_objetos">estatistica_tipo!$A$2:$A$1048576</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="36">
   <si>
     <t>Qtd objetos</t>
   </si>
@@ -88,24 +87,6 @@
     <t>Objeto</t>
   </si>
   <si>
-    <t>Higienização</t>
-  </si>
-  <si>
-    <t>Carregamento</t>
-  </si>
-  <si>
-    <t>Extração</t>
-  </si>
-  <si>
-    <t>Gravação de mídia</t>
-  </si>
-  <si>
-    <t>Imagem</t>
-  </si>
-  <si>
-    <t>Processamento</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -157,16 +138,16 @@
     <t>Gravando mídia</t>
   </si>
   <si>
-    <t>Buffer empacotamento</t>
-  </si>
-  <si>
-    <t>Empacotando</t>
-  </si>
-  <si>
     <t>Tempo mínimo</t>
   </si>
   <si>
     <t>color</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Perícia</t>
   </si>
 </sst>
 </file>
@@ -176,11 +157,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,19 +238,19 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,7 +653,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +668,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -801,10 +789,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E230"/>
+  <dimension ref="A1:K228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,16 +809,16 @@
         <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -844,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" s="12">
         <v>2.0833333333333332E-2</v>
@@ -862,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E3" s="12"/>
     </row>
@@ -874,11 +862,11 @@
         <v>5</v>
       </c>
       <c r="C4" s="11">
-        <f>IF(A4&lt;&gt;"",IF(AND(A4=A2,B4=B2),C2,IF(C2=1,2,1)),"")</f>
+        <f t="shared" ref="C4:C36" si="0">IF(A4&lt;&gt;"",IF(AND(A4=A2,B4=B2),C2,IF(C2=1,2,1)),"")</f>
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E4" s="12">
         <v>8.3333333333333329E-2</v>
@@ -892,14 +880,14 @@
         <v>6</v>
       </c>
       <c r="C5" s="11">
-        <f>IF(A5&lt;&gt;"",IF(AND(A5=A4,B5=B4),C4,IF(C4=1,2,1)),"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>0.16666666666666699</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -910,14 +898,14 @@
         <v>6</v>
       </c>
       <c r="C6" s="11">
-        <f t="shared" ref="C6:C68" si="0">IF(A6&lt;&gt;"",IF(AND(A6=A5,B6=B5),C5,IF(C5=1,2,1)),"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6" s="12">
-        <v>8.3333333333333329E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -925,17 +913,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E7" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,17 +931,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E8" s="12">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -961,17 +949,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E9" s="12">
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666699</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -986,10 +974,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E10" s="12">
-        <v>0.125</v>
+        <v>0.16666666666666699</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -997,14 +985,14 @@
         <v>4</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E11" s="12">
         <v>2.0833333333333332E-2</v>
@@ -1015,14 +1003,14 @@
         <v>4</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E12" s="12">
         <v>8.3333333333333329E-2</v>
@@ -1033,17 +1021,17 @@
         <v>4</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E13" s="12">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1051,17 +1039,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E14" s="12">
-        <v>0.125</v>
+        <v>0.16666666666666699</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1069,17 +1057,17 @@
         <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E15" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>0.20833333333333301</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1087,17 +1075,17 @@
         <v>4</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E16" s="12">
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1105,17 +1093,17 @@
         <v>4</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E17" s="12">
-        <v>8.3333333333333329E-2</v>
+        <v>0.20833333333333301</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1123,62 +1111,68 @@
         <v>4</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E18" s="12">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E19" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>0.16666666666666699</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C20" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E20" s="12">
-        <v>8.3333333333333329E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C21" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E21" s="12">
         <v>8.3333333333333329E-2</v>
@@ -1186,14 +1180,17 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C22" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E22" s="12">
         <v>0.125</v>
@@ -1201,1358 +1198,1595 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E23" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>0.16666666666666699</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C24" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E24" s="12">
-        <v>8.3333333333333329E-2</v>
+        <v>0.20833333333333301</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C25" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E25" s="12">
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C26" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E26" s="12">
-        <v>0.125</v>
+        <v>0.20833333333333301</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C27" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E27" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C28" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E28" s="12">
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666699</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C29" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E29" s="12">
-        <v>8.3333333333333329E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C30" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E30" s="12">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C31" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E31" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0.16666666666666699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.20833333333333301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0.20833333333333301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="12">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="B37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="11">
+        <f t="shared" ref="C7:C66" si="1">IF(A37&lt;&gt;"",IF(AND(A37=A36,B37=B36),C36,IF(C36=1,2,1)),"")</f>
+        <v>2</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="12">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="B38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="11">
+        <f t="shared" ref="C38:C39" si="2">IF(A38&lt;&gt;"",IF(AND(A38=A37,B38=B37),C37,IF(C37=1,2,1)),"")</f>
+        <v>2</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="12">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="C35" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C44" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C48" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="11">
+        <f t="shared" ref="C40:C41" si="3">IF(A40&lt;&gt;"",IF(AND(A40=A39,B40=B39),C39,IF(C39=1,2,1)),"")</f>
+        <v>2</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="11">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="11">
+        <f t="shared" ref="C42:C48" si="4">IF(A42&lt;&gt;"",IF(AND(A42=A41,B42=B41),C41,IF(C41=1,2,1)),"")</f>
+        <v>2</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="11">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="11">
+        <f t="shared" ref="C49:C55" si="5">IF(A49&lt;&gt;"",IF(AND(A49=A48,B49=B48),C48,IF(C48=1,2,1)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="11">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="11">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="11">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="11">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="11">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="11">
+        <f t="shared" ref="C56:C57" si="6">IF(A56&lt;&gt;"",IF(AND(A56=A55,B56=B55),C55,IF(C55=1,2,1)),"")</f>
+        <v>2</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="11">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C58" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C59" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C60" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C61" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C67:C130" si="7">IF(A67&lt;&gt;"",IF(AND(A67=A66,B67=B66),C66,IF(C66=1,2,1)),"")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="11" t="str">
-        <f t="shared" ref="C69:C132" si="1">IF(A69&lt;&gt;"",IF(AND(A69=A68,B69=B68),C68,IF(C68=1,2,1)),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C131:C194" si="8">IF(A131&lt;&gt;"",IF(AND(A131=A130,B131=B130),C130,IF(C130=1,2,1)),"")</f>
         <v/>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133" s="11" t="str">
-        <f t="shared" ref="C133:C196" si="2">IF(A133&lt;&gt;"",IF(AND(A133=A132,B133=B132),C132,IF(C132=1,2,1)),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C143" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C155" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C156" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C157" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C158" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C159" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C160" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C161" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C162" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C163" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C164" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C165" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C166" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C167" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C168" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C169" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C170" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C171" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C172" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C173" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C174" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C175" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C176" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C177" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C179" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C180" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C181" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C182" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C183" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C184" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C185" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C186" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C187" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C189" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C190" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C191" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C193" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C194" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C195" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C195:C228" si="9">IF(A195&lt;&gt;"",IF(AND(A195=A194,B195=B194),C194,IF(C194=1,2,1)),"")</f>
         <v/>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C196" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C197" s="11" t="str">
-        <f t="shared" ref="C197:C230" si="3">IF(A197&lt;&gt;"",IF(AND(A197=A196,B197=B196),C196,IF(C196=1,2,1)),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C198" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C199" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C200" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C201" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C202" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C203" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C204" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C205" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C206" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C207" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C208" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C209" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C210" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C211" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C212" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C213" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C214" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C215" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C216" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C217" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C218" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C219" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C220" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C221" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C222" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C223" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C224" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C225" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C226" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C227" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C228" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C229" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C230" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2583,10 +2817,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81606CBA-E54E-445A-8F3C-E1CB44EA059E}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A1048576"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,103 +2828,128 @@
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{76DFEC9B-8316-45DC-8123-5D731E62A21F}">
+      <formula1>"Objeto,Perícia"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2712,7 +2971,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2720,7 +2979,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -2728,7 +2987,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -2736,7 +2995,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -2744,7 +3003,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>4</v>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\linf_pipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5803BF-5906-4407-A595-8B44BDB0318A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361DE2DA-FC03-45BA-A33F-E72BB2AC3888}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="1620" windowWidth="21600" windowHeight="11295" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="estatistica_qtd_objetos" sheetId="1" r:id="rId1"/>
@@ -116,10 +116,10 @@
     <t>Gravação de mídia</t>
   </si>
   <si>
-    <t>Buffer</t>
+    <t>Nome</t>
   </si>
   <si>
-    <t>Nome</t>
+    <t>Capacidade</t>
   </si>
 </sst>
 </file>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C202" s="4" t="str">
-        <f t="shared" ref="C202:C233" si="6">IF(A202&lt;&gt;"",IF(AND(A202=A201,B202=B201),C201,IF(C201=1,2,1)),"")</f>
+        <f t="shared" ref="C202:C210" si="6">IF(A202&lt;&gt;"",IF(AND(A202=A201,B202=B201),C201,IF(C201=1,2,1)),"")</f>
         <v/>
       </c>
     </row>
@@ -2437,23 +2437,23 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="9" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -883,7 +883,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00B30026-00AA-48D3-9083-00EF00D700E2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E000A2-00D8-4BC7-9F8F-00C0004D0035}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>"tipos_objeto"</xm:f>
           </x14:formula1>
@@ -892,7 +892,7 @@
           </x14:formula2>
           <xm:sqref>A1</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0072009F-00EF-4D03-BBF9-00B300ED009A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E60087-00EB-4049-8C33-00A4000D00AE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>tipos_objeto</xm:f>
           </x14:formula1>
@@ -2617,7 +2617,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{003B004A-003F-4932-9D5B-009A00B9005F}">
+          <x14:cfRule type="expression" priority="2" id="{00CC000B-0025-4869-B96D-003900C40056}">
             <xm:f>$C1=2</xm:f>
             <x14:dxf>
               <font>
@@ -2634,7 +2634,7 @@
           <xm:sqref>A:E</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{00E000BF-007C-4EFE-BEE4-00AA006500F2}">
+          <x14:cfRule type="expression" priority="3" id="{00270064-006A-43F2-9670-00A700F00059}">
             <xm:f>$C1=1</xm:f>
             <x14:dxf>
               <font>
@@ -2654,7 +2654,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00F300DB-0009-4B58-87EA-00E300AE0054}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00AB005E-00C1-4CFD-9E89-001F002400B7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>tipos_objetos</xm:f>
           </x14:formula1>
@@ -2663,7 +2663,7 @@
           </x14:formula2>
           <xm:sqref>A2:A1210</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DD006C-0070-417D-B930-00D1008E00F6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004400FE-00FC-4EEE-B8F9-0075000200CF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>tipos_extracao</xm:f>
           </x14:formula1>
@@ -2672,7 +2672,7 @@
           </x14:formula2>
           <xm:sqref>B2:B1210</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00380096-0075-4745-BE64-002B00060029}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B500F6-00AD-405C-845F-00A2003700C0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>etapas</xm:f>
           </x14:formula1>
@@ -2777,9 +2777,7 @@
       <c r="B8" s="7"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="BF30" s="7">
-        <v>50</v>
-      </c>
+      <c r="BF30" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -4,10 +4,10 @@
   <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3" showHorizontalScroll="1" showVerticalScroll="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0" showHorizontalScroll="1" showVerticalScroll="1"/>
   </bookViews>
   <sheets>
-    <sheet name="estatistica_qtd_objetos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="estatistica_qtd_evidencias" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="estatistica_tipo" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="estatistica_subtipo" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="exames" sheetId="4" state="visible" r:id="rId4"/>
@@ -31,7 +31,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t xml:space="preserve">Qtd objetos</t>
+    <t xml:space="preserve">Qtd evidências</t>
   </si>
   <si>
     <t>Quantidade</t>
@@ -46,7 +46,7 @@
     <t>Celular</t>
   </si>
   <si>
-    <t>Objeto</t>
+    <t>Evidência</t>
   </si>
   <si>
     <t>Subtipo</t>
@@ -644,16 +644,17 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" topLeftCell="A1" zoomScale="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" zoomScale="100" workbookViewId="0">
       <selection activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="12.800000000000001" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" style="0" width="11.43"/>
+    <col customWidth="1" min="1" max="1" style="0" width="14.28125"/>
+    <col customWidth="1" min="2" max="2" style="0" width="11.43"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.800000000000001">
+    <row r="1" s="1" customFormat="1" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +806,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" topLeftCell="A1" zoomScale="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" zoomScale="100" workbookViewId="0">
       <selection activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3934,7 +3935,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00040018-0097-4888-B076-003C00920096}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C70082-008C-4278-AD05-00880081007B}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>"tipos_objeto"</xm:f>
           </x14:formula1>
@@ -3943,7 +3944,7 @@
           </x14:formula2>
           <xm:sqref>A1</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A00029-0068-4C6A-A008-00FF002500CF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{009C00F5-00BC-4688-B5D6-00BE0068005E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>tipos_objeto</xm:f>
           </x14:formula1>
@@ -10369,7 +10370,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00E10082-009D-4B06-8BAB-00A300DC0082}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000100E5-006D-48E7-8752-000000C400B3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>tipos_objetos</xm:f>
           </x14:formula1>
@@ -10378,7 +10379,7 @@
           </x14:formula2>
           <xm:sqref>A2:A1210</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00CC00EF-00A1-4136-B970-001B00560013}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00010066-00A4-4886-9A87-00CD00F1007C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>tipos_extracao</xm:f>
           </x14:formula1>
@@ -10387,7 +10388,7 @@
           </x14:formula2>
           <xm:sqref>B2:B1210</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009200C0-0019-44C2-835A-0001002B0033}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D90065-00FE-447A-8864-007B00EE0025}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>etapas</xm:f>
           </x14:formula1>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -4,7 +4,7 @@
   <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3" showHorizontalScroll="1" showVerticalScroll="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5" showHorizontalScroll="1" showVerticalScroll="1"/>
   </bookViews>
   <sheets>
     <sheet name="estatistica_qtd_objetos" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="estatistica_subtipo" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="exames" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="equipamentos" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="peritos" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="capacidades_computador" hidden="0">#REF!</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Qtd objetos</t>
   </si>
@@ -105,6 +106,45 @@
   <si>
     <t>Buffer</t>
   </si>
+  <si>
+    <t>Sequência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 12</t>
+  </si>
 </sst>
 </file>
 
@@ -113,7 +153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.000000"/>
       <color theme="1"/>
@@ -145,6 +185,12 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10.000000"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,7 +219,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -208,6 +254,12 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
@@ -3934,7 +3986,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00040018-0097-4888-B076-003C00920096}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00CE0072-00DC-497E-8C09-00A3009200A3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>"tipos_objeto"</xm:f>
           </x14:formula1>
@@ -3943,7 +3995,7 @@
           </x14:formula2>
           <xm:sqref>A1</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A00029-0068-4C6A-A008-00FF002500CF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{009B00C8-00F0-4859-A311-00CC002E00D3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>tipos_objeto</xm:f>
           </x14:formula1>
@@ -4002,7 +4054,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="4">
-        <v>0.020833333333333301</v>
+        <v>2.0833333333333301e-002</v>
       </c>
     </row>
     <row r="3" ht="12.75">
@@ -4016,7 +4068,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="4">
-        <v>0.083333333333333301</v>
+        <v>8.3333333333333301e-002</v>
       </c>
     </row>
     <row r="4" ht="12.75">
@@ -4030,7 +4082,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="4">
-        <v>0.020833333333333301</v>
+        <v>2.0833333333333301e-002</v>
       </c>
     </row>
     <row r="5" ht="12.75">
@@ -4044,7 +4096,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="4">
-        <v>0.083333333333333329</v>
+        <v>8.3333333333333329e-002</v>
       </c>
     </row>
     <row r="6" ht="12.75">
@@ -4058,7 +4110,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="4">
-        <v>0.083333333333333301</v>
+        <v>8.3333333333333301e-002</v>
       </c>
     </row>
     <row r="7" ht="12.75">
@@ -4072,7 +4124,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="4">
-        <v>0.020833333333333332</v>
+        <v>2.0833333333333332e-002</v>
       </c>
     </row>
     <row r="8" ht="12.75">
@@ -4086,7 +4138,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="4">
-        <v>0.083333333333333329</v>
+        <v>8.3333333333333329e-002</v>
       </c>
     </row>
     <row r="9" ht="12.75">
@@ -4100,7 +4152,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="4">
-        <v>0.083333333333333301</v>
+        <v>8.3333333333333301e-002</v>
       </c>
     </row>
     <row r="10" ht="12.75">
@@ -4156,7 +4208,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="4">
-        <v>0.083333333333333329</v>
+        <v>8.3333333333333329e-002</v>
       </c>
     </row>
     <row r="14" ht="12.75">
@@ -4212,7 +4264,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="4">
-        <v>0.020833333333333332</v>
+        <v>2.0833333333333332e-002</v>
       </c>
     </row>
     <row r="18" ht="12.75">
@@ -4226,7 +4278,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="4">
-        <v>0.020833333333333301</v>
+        <v>2.0833333333333301e-002</v>
       </c>
     </row>
     <row r="19" ht="12.75">
@@ -4282,7 +4334,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="4">
-        <v>0.020833333333333332</v>
+        <v>2.0833333333333332e-002</v>
       </c>
       <c r="J22" s="7"/>
     </row>
@@ -4325,7 +4377,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="4">
-        <v>0.083333333333333329</v>
+        <v>8.3333333333333329e-002</v>
       </c>
     </row>
     <row r="26" ht="12.75">
@@ -4339,7 +4391,7 @@
         <v>18</v>
       </c>
       <c r="D26" s="4">
-        <v>0.020833333333333332</v>
+        <v>2.0833333333333332e-002</v>
       </c>
     </row>
     <row r="27" ht="12.75">
@@ -4381,7 +4433,7 @@
         <v>22</v>
       </c>
       <c r="D29" s="4">
-        <v>0.083333333333333329</v>
+        <v>8.3333333333333329e-002</v>
       </c>
     </row>
     <row r="30" ht="12.75">
@@ -4395,7 +4447,7 @@
         <v>18</v>
       </c>
       <c r="D30" s="4">
-        <v>0.020833333333333332</v>
+        <v>2.0833333333333332e-002</v>
       </c>
     </row>
     <row r="31" ht="12.75">
@@ -4451,7 +4503,7 @@
         <v>18</v>
       </c>
       <c r="D34" s="4">
-        <v>0.020833333333333332</v>
+        <v>2.0833333333333332e-002</v>
       </c>
     </row>
     <row r="35" ht="12.75">
@@ -10369,7 +10421,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00E10082-009D-4B06-8BAB-00A300DC0082}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E5009A-00DB-4FB3-9EE5-00ED00640080}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>tipos_objetos</xm:f>
           </x14:formula1>
@@ -10378,7 +10430,7 @@
           </x14:formula2>
           <xm:sqref>A2:A1210</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00CC00EF-00A1-4136-B970-001B00560013}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00220043-0056-4B24-8729-00A5002900DA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>tipos_extracao</xm:f>
           </x14:formula1>
@@ -10387,7 +10439,7 @@
           </x14:formula2>
           <xm:sqref>B2:B1210</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009200C0-0019-44C2-835A-0001002B0033}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004900EF-007B-4478-AEC3-002800960003}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>etapas</xm:f>
           </x14:formula1>
@@ -10503,4 +10555,128 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="13"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,25 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\linf_pipeline\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F03E9FA-62DE-477B-BE19-127FB49B51FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="estatistica_qtd_objetos" sheetId="1" r:id="rId1"/>
-    <sheet name="estatistica_tipo" sheetId="2" r:id="rId2"/>
-    <sheet name="estatistica_subtipo" sheetId="3" r:id="rId3"/>
-    <sheet name="exames" sheetId="4" r:id="rId4"/>
-    <sheet name="equipamentos" sheetId="5" r:id="rId5"/>
-    <sheet name="peritos" sheetId="6" r:id="rId6"/>
-    <sheet name="vars" sheetId="7" r:id="rId7"/>
+    <sheet name="estatistica_qtd_objetos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="estatistica_tipo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="estatistica_subtipo" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="exames" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="equipamentos" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="peritos" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="vars" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="capacidades_computador">#REF!</definedName>
@@ -29,14 +22,17 @@
     <definedName name="tipos_objeto">estatistica_tipo!$A$2:$A$1048576</definedName>
     <definedName name="tipos_objetos">estatistica_tipo!$A$2:$A$1048576</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="48">
-  <si>
-    <t>Qtd objetos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t xml:space="preserve">Qtd objetos</t>
   </si>
   <si>
     <t>Quantidade</t>
@@ -63,31 +59,31 @@
     <t>Bloqueado</t>
   </si>
   <si>
-    <t>Extração lógica</t>
-  </si>
-  <si>
-    <t>Extração de sistema de arquivos</t>
-  </si>
-  <si>
-    <t>Extração física</t>
-  </si>
-  <si>
-    <t>Até 500GB</t>
-  </si>
-  <si>
-    <t>Entre 500GB e 1TB</t>
-  </si>
-  <si>
-    <t>Entre 1TB e 2TB</t>
-  </si>
-  <si>
-    <t>Acima de 2TB</t>
+    <t xml:space="preserve">Extração lógica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extração de sistema de arquivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extração física</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Até 500GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre 500GB e 1TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre 1TB e 2TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acima de 2TB</t>
   </si>
   <si>
     <t>Etapa</t>
   </si>
   <si>
-    <t>Tempo mínimo</t>
+    <t xml:space="preserve">Tempo mínimo</t>
   </si>
   <si>
     <t>Higienização</t>
@@ -102,7 +98,7 @@
     <t>Processamento</t>
   </si>
   <si>
-    <t>Gravação de mídia</t>
+    <t xml:space="preserve">Gravação de mídia</t>
   </si>
   <si>
     <t>Nome</t>
@@ -114,132 +110,131 @@
     <t>Sequência</t>
   </si>
   <si>
-    <t>Perito 1</t>
-  </si>
-  <si>
-    <t>Perito 2</t>
-  </si>
-  <si>
-    <t>Perito 3</t>
-  </si>
-  <si>
-    <t>Perito 4</t>
-  </si>
-  <si>
-    <t>Perito 5</t>
-  </si>
-  <si>
-    <t>Perito 6</t>
-  </si>
-  <si>
-    <t>Perito 7</t>
-  </si>
-  <si>
-    <t>Perito 8</t>
-  </si>
-  <si>
-    <t>Perito 9</t>
-  </si>
-  <si>
-    <t>Perito 10</t>
-  </si>
-  <si>
-    <t>Perito 11</t>
-  </si>
-  <si>
-    <t>Perito 12</t>
+    <t xml:space="preserve">Perito 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perito 12</t>
+  </si>
+  <si>
+    <t>var_name</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horário de trabalho regime individual</t>
+  </si>
+  <si>
+    <t>horario_individual</t>
   </si>
   <si>
     <t>Plantão</t>
   </si>
   <si>
-    <t>Expediente</t>
-  </si>
-  <si>
-    <t>Horário de trabalho regime individual</t>
-  </si>
-  <si>
-    <t>Horário de trabalho regime pipeline</t>
-  </si>
-  <si>
-    <t>Número máximo de perícias por perito no individual</t>
-  </si>
-  <si>
-    <t>horario_individual</t>
+    <t xml:space="preserve">Horário de trabalho regime pipeline</t>
   </si>
   <si>
     <t>horario_pipeline</t>
   </si>
   <si>
+    <t xml:space="preserve">Número máximo de perícias por perito no individual</t>
+  </si>
+  <si>
     <t>max_pericias_por_perito</t>
   </si>
   <si>
-    <t>var_name</t>
-  </si>
-  <si>
-    <t>Valor</t>
+    <t xml:space="preserve">Data inicial da simulação</t>
+  </si>
+  <si>
+    <t>data_inicial</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data final da simulação</t>
+  </si>
+  <si>
+    <t>data_final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[hh]:mm"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="10.000000"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -252,34 +247,37 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="16">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -297,8 +295,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
@@ -350,7 +631,7 @@
         <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -419,24 +700,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" customWidth="1"/>
+    <col customWidth="1" min="1" max="2" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -452,7 +731,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -460,7 +739,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -468,7 +747,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -476,7 +755,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -484,7 +763,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -492,7 +771,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -500,7 +779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -508,7 +787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -516,7 +795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -525,24 +804,27 @@
       </c>
     </row>
   </sheetData>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78750000000000009" bottom="0.78750000000000009" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" style="2" width="12"/>
+    <col customWidth="1" min="2" max="2" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -550,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -558,7 +840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -567,27 +849,28 @@
       </c>
     </row>
   </sheetData>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78750000000000009" bottom="0.78750000000000009" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" style="2" width="12.5703125"/>
+    <col customWidth="1" min="2" max="2" style="2" width="29.85546875"/>
+    <col customWidth="1" min="3" max="3" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -598,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -609,7 +892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -620,7 +903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -631,7 +914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -642,7 +925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -653,7 +936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -664,7 +947,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -675,7 +958,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -686,7 +969,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -698,38 +981,53 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00CE0072-00DC-497E-8C09-00A3009200A3}">
-      <formula1>"tipos_objeto"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1010" xr:uid="{009B00C8-00F0-4859-A311-00CC002E00D3}">
-      <formula1>tipos_objeto</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78750000000000009" bottom="0.78750000000000009" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
+        <x14:dataValidation xr:uid="{008D0000-001E-481A-A63C-00BA007C0076}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>"tipos_objeto"</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>A1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00740034-006B-486B-8125-00BB005D00E6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>tipos_objeto</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>A2:A1010</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="4" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" style="2" width="17.28515625"/>
+    <col customWidth="1" min="2" max="2" style="2" width="29.85546875"/>
+    <col customWidth="1" min="3" max="3" style="2" width="22"/>
+    <col customWidth="1" min="4" max="4" style="4" width="17.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="15">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -743,7 +1041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -754,10 +1052,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="4">
-        <v>2.0833333333333301E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.020833333333333301</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -768,10 +1066,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="4">
-        <v>8.3333333333333301E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.083333333333333301</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -782,10 +1080,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="4">
-        <v>2.0833333333333301E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.020833333333333301</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -796,10 +1094,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -810,10 +1108,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="4">
-        <v>8.3333333333333301E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.083333333333333301</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -824,10 +1122,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="4">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.020833333333333332</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -838,10 +1136,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -852,10 +1150,10 @@
         <v>20</v>
       </c>
       <c r="D9" s="4">
-        <v>8.3333333333333301E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.083333333333333301</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -869,7 +1167,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -883,7 +1181,7 @@
         <v>0.16666666666666699</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -897,7 +1195,7 @@
         <v>0.16666666666666699</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -908,10 +1206,10 @@
         <v>19</v>
       </c>
       <c r="D13" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -925,7 +1223,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -939,7 +1237,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -953,7 +1251,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -964,10 +1262,10 @@
         <v>18</v>
       </c>
       <c r="D17" s="4">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.020833333333333332</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -978,10 +1276,10 @@
         <v>19</v>
       </c>
       <c r="D18" s="4">
-        <v>2.0833333333333301E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.020833333333333301</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -995,7 +1293,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1307,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1023,7 +1321,7 @@
         <v>0.16666666666666699</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" ht="15">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
@@ -1034,11 +1332,11 @@
         <v>18</v>
       </c>
       <c r="D22" s="4">
-        <v>2.0833333333333332E-2</v>
+        <v>0.020833333333333332</v>
       </c>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -1052,7 +1350,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -1066,7 +1364,7 @@
         <v>0.29166666666666702</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1077,10 +1375,10 @@
         <v>22</v>
       </c>
       <c r="D25" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
@@ -1091,10 +1389,10 @@
         <v>18</v>
       </c>
       <c r="D26" s="4">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.020833333333333332</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -1108,7 +1406,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -1122,7 +1420,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -1133,10 +1431,10 @@
         <v>22</v>
       </c>
       <c r="D29" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -1147,10 +1445,10 @@
         <v>18</v>
       </c>
       <c r="D30" s="4">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.020833333333333332</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
@@ -1164,7 +1462,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1178,7 +1476,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
@@ -1192,7 +1490,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
@@ -1203,10 +1501,10 @@
         <v>18</v>
       </c>
       <c r="D34" s="4">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.020833333333333332</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
@@ -1220,7 +1518,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
@@ -1234,7 +1532,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
@@ -1249,41 +1547,61 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1210" xr:uid="{00E5009A-00DB-4FB3-9EE5-00ED00640080}">
-      <formula1>tipos_objetos</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1210" xr:uid="{00220043-0056-4B24-8729-00A5002900DA}">
-      <formula1>tipos_extracao</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1210" xr:uid="{004900EF-007B-4478-AEC3-002800960003}">
-      <formula1>etapas</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78750000000000009" bottom="0.78750000000000009" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
+        <x14:dataValidation xr:uid="{00E400C3-00E3-4F0C-B70A-00D10055008B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>tipos_objetos</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>A2:A1210</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{008A002F-00A1-4914-81A0-002A000200CC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>tipos_extracao</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>B2:B1210</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00ED00C5-00D7-4807-8EA3-00D600E9001E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>etapas</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C2:C1210</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:BF30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" style="2" width="23.140625"/>
+    <col customWidth="1" min="2" max="2" style="8" width="13.5703125"/>
+    <col customWidth="1" min="3" max="3" width="12.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" ht="15">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -1294,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" ht="14.25">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
@@ -1305,7 +1623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" ht="14.25">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -1316,7 +1634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" ht="14.25">
       <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
@@ -1327,7 +1645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" ht="14.25">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -1338,7 +1656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" ht="14.25">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
@@ -1349,37 +1667,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" ht="14.25">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" ht="14.25">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
     </row>
-    <row r="30" spans="58:58" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" ht="14.25">
       <c r="BF30" s="11"/>
     </row>
   </sheetData>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78750000000000009" bottom="0.78750000000000009" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -1387,7 +1706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1395,7 +1714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1403,167 +1722,202 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+    <row r="4">
+      <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="5">
+      <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+    <row r="6">
+      <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+    <row r="7">
+      <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+    <row r="8">
+      <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+    <row r="9">
+      <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+    <row r="10">
+      <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+    <row r="11">
+      <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+    <row r="12">
+      <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+    <row r="13">
+      <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+    <row r="14">
+      <c r="A14" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BF13B8-33B7-44F0-BEAD-839FE1028264}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="49.85546875"/>
+    <col customWidth="1" hidden="1" min="2" max="2" style="8" width="25.85546875"/>
+    <col customWidth="1" min="3" max="3" width="11.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="12" customFormat="1">
+      <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C4" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75">
+      <c r="A5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D9" s="16"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="14">
+        <v>45292</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="14">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="15">
       <c r="B15" s="15"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{E88DDF84-16FD-4FD2-8F72-7F8FCE6F2786}">
-      <formula1>"Expediente,Plantão"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000014" footer="0.31496062000000014"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
+        <x14:dataValidation xr:uid="{00770013-00F1-49EC-98A8-00BD00800034}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>"Expediente,Plantão"</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\linf_pipeline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E6F12B-6F34-4A41-A4F6-A1EE1CD97F78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="estatistica_qtd_objetos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="estatistica_tipo" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="estatistica_subtipo" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="exames" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="equipamentos" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="peritos" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="vars" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="estatistica_qtd_objetos" sheetId="1" r:id="rId1"/>
+    <sheet name="estatistica_tipo" sheetId="2" r:id="rId2"/>
+    <sheet name="estatistica_subtipo" sheetId="3" r:id="rId3"/>
+    <sheet name="exames" sheetId="4" r:id="rId4"/>
+    <sheet name="equipamentos" sheetId="5" r:id="rId5"/>
+    <sheet name="peritos" sheetId="6" r:id="rId6"/>
+    <sheet name="vars" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="capacidades_computador">#REF!</definedName>
@@ -22,17 +29,14 @@
     <definedName name="tipos_objeto">estatistica_tipo!$A$2:$A$1048576</definedName>
     <definedName name="tipos_objetos">estatistica_tipo!$A$2:$A$1048576</definedName>
   </definedNames>
-  <calcPr iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
-  </extLst>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
-  <si>
-    <t xml:space="preserve">Qtd objetos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="52">
+  <si>
+    <t>Qtd objetos</t>
   </si>
   <si>
     <t>Quantidade</t>
@@ -59,31 +63,31 @@
     <t>Bloqueado</t>
   </si>
   <si>
-    <t xml:space="preserve">Extração lógica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extração de sistema de arquivos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extração física</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Até 500GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entre 500GB e 1TB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entre 1TB e 2TB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acima de 2TB</t>
+    <t>Extração lógica</t>
+  </si>
+  <si>
+    <t>Extração de sistema de arquivos</t>
+  </si>
+  <si>
+    <t>Extração física</t>
+  </si>
+  <si>
+    <t>Até 500GB</t>
+  </si>
+  <si>
+    <t>Entre 500GB e 1TB</t>
+  </si>
+  <si>
+    <t>Entre 1TB e 2TB</t>
+  </si>
+  <si>
+    <t>Acima de 2TB</t>
   </si>
   <si>
     <t>Etapa</t>
   </si>
   <si>
-    <t xml:space="preserve">Tempo mínimo</t>
+    <t>Tempo mínimo</t>
   </si>
   <si>
     <t>Higienização</t>
@@ -98,7 +102,7 @@
     <t>Processamento</t>
   </si>
   <si>
-    <t xml:space="preserve">Gravação de mídia</t>
+    <t>Gravação de mídia</t>
   </si>
   <si>
     <t>Nome</t>
@@ -110,40 +114,40 @@
     <t>Sequência</t>
   </si>
   <si>
-    <t xml:space="preserve">Perito 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perito 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perito 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perito 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perito 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perito 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perito 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perito 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perito 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perito 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perito 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perito 12</t>
+    <t>Perito 1</t>
+  </si>
+  <si>
+    <t>Perito 2</t>
+  </si>
+  <si>
+    <t>Perito 3</t>
+  </si>
+  <si>
+    <t>Perito 4</t>
+  </si>
+  <si>
+    <t>Perito 5</t>
+  </si>
+  <si>
+    <t>Perito 6</t>
+  </si>
+  <si>
+    <t>Perito 7</t>
+  </si>
+  <si>
+    <t>Perito 8</t>
+  </si>
+  <si>
+    <t>Perito 9</t>
+  </si>
+  <si>
+    <t>Perito 10</t>
+  </si>
+  <si>
+    <t>Perito 11</t>
+  </si>
+  <si>
+    <t>Perito 12</t>
   </si>
   <si>
     <t>var_name</t>
@@ -152,28 +156,25 @@
     <t>Valor</t>
   </si>
   <si>
-    <t xml:space="preserve">Horário de trabalho regime individual</t>
+    <t>Horário de trabalho regime individual</t>
   </si>
   <si>
     <t>horario_individual</t>
   </si>
   <si>
-    <t>Plantão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horário de trabalho regime pipeline</t>
+    <t>Horário de trabalho regime pipeline</t>
   </si>
   <si>
     <t>horario_pipeline</t>
   </si>
   <si>
-    <t xml:space="preserve">Número máximo de perícias por perito no individual</t>
+    <t>Número máximo de perícias por perito no individual</t>
   </si>
   <si>
     <t>max_pericias_por_perito</t>
   </si>
   <si>
-    <t xml:space="preserve">Data inicial da simulação</t>
+    <t>Data inicial da simulação</t>
   </si>
   <si>
     <t>data_inicial</t>
@@ -182,57 +183,59 @@
     <t>/</t>
   </si>
   <si>
-    <t xml:space="preserve">Data final da simulação</t>
+    <t>Data final da simulação</t>
   </si>
   <si>
     <t>data_final</t>
+  </si>
+  <si>
+    <t>Expediente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[hh]:mm"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -247,37 +250,37 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -295,291 +298,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
@@ -631,7 +351,7 @@
         <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -700,22 +420,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="11.42578125"/>
+    <col min="1" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -731,7 +453,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -739,7 +461,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -747,7 +469,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -755,7 +477,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -763,7 +485,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -771,7 +493,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -779,7 +501,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -787,7 +509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -795,7 +517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -804,27 +526,24 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78750000000000009" bottom="0.78750000000000009" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="2" width="12"/>
-    <col customWidth="1" min="2" max="2" width="11.42578125"/>
+    <col min="1" max="1" width="12" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -832,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -840,7 +559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -849,28 +568,27 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78750000000000009" bottom="0.78750000000000009" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="2" width="12.5703125"/>
-    <col customWidth="1" min="2" max="2" style="2" width="29.85546875"/>
-    <col customWidth="1" min="3" max="3" width="11.42578125"/>
+    <col min="1" max="1" width="12.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -881,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -892,7 +610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -903,7 +621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -914,7 +632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -925,7 +643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -936,7 +654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -947,7 +665,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -958,7 +676,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -969,7 +687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -981,53 +699,38 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
+  <dataValidations count="2">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{008D0000-001E-481A-A63C-00BA007C0076}">
+      <formula1>"tipos_objeto"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1010" xr:uid="{00740034-006B-486B-8125-00BB005D00E6}">
+      <formula1>tipos_objeto</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78750000000000009" bottom="0.78750000000000009" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{008D0000-001E-481A-A63C-00BA007C0076}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>"tipos_objeto"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>A1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00740034-006B-486B-8125-00BB005D00E6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>tipos_objeto</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>A2:A1010</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="K7" activeCellId="0" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="2" width="17.28515625"/>
-    <col customWidth="1" min="2" max="2" style="2" width="29.85546875"/>
-    <col customWidth="1" min="3" max="3" style="2" width="22"/>
-    <col customWidth="1" min="4" max="4" style="4" width="17.140625"/>
+    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -1041,7 +744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1052,10 +755,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="4">
-        <v>0.020833333333333301</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2.0833333333333301E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1066,10 +769,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="4">
-        <v>0.083333333333333301</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>8.3333333333333301E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1080,10 +783,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="4">
-        <v>0.020833333333333301</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2.0833333333333301E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1094,10 +797,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1108,10 +811,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="4">
-        <v>0.083333333333333301</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1122,10 +825,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="4">
-        <v>0.020833333333333332</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1136,10 +839,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1150,10 +853,10 @@
         <v>20</v>
       </c>
       <c r="D9" s="4">
-        <v>0.083333333333333301</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>8.3333333333333301E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1167,7 +870,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1181,7 +884,7 @@
         <v>0.16666666666666699</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1195,7 +898,7 @@
         <v>0.16666666666666699</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1206,10 +909,10 @@
         <v>19</v>
       </c>
       <c r="D13" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -1223,7 +926,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1237,7 +940,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -1251,7 +954,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -1262,10 +965,10 @@
         <v>18</v>
       </c>
       <c r="D17" s="4">
-        <v>0.020833333333333332</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -1276,10 +979,10 @@
         <v>19</v>
       </c>
       <c r="D18" s="4">
-        <v>0.020833333333333301</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>2.0833333333333301E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -1293,7 +996,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -1307,7 +1010,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1321,7 +1024,7 @@
         <v>0.16666666666666699</v>
       </c>
     </row>
-    <row r="22" ht="15">
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
@@ -1332,11 +1035,11 @@
         <v>18</v>
       </c>
       <c r="D22" s="4">
-        <v>0.020833333333333332</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="J22" s="7"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -1350,7 +1053,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -1364,7 +1067,7 @@
         <v>0.29166666666666702</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1375,10 +1078,10 @@
         <v>22</v>
       </c>
       <c r="D25" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
@@ -1389,10 +1092,10 @@
         <v>18</v>
       </c>
       <c r="D26" s="4">
-        <v>0.020833333333333332</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -1406,7 +1109,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -1420,7 +1123,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -1431,10 +1134,10 @@
         <v>22</v>
       </c>
       <c r="D29" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -1445,10 +1148,10 @@
         <v>18</v>
       </c>
       <c r="D30" s="4">
-        <v>0.020833333333333332</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
@@ -1462,7 +1165,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1476,7 +1179,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
@@ -1490,7 +1193,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
@@ -1501,10 +1204,10 @@
         <v>18</v>
       </c>
       <c r="D34" s="4">
-        <v>0.020833333333333332</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
@@ -1518,7 +1221,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,7 +1235,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
@@ -1547,61 +1250,41 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
+  <dataValidations count="3">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1210" xr:uid="{00E400C3-00E3-4F0C-B70A-00D10055008B}">
+      <formula1>tipos_objetos</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1210" xr:uid="{008A002F-00A1-4914-81A0-002A000200CC}">
+      <formula1>tipos_extracao</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1210" xr:uid="{00ED00C5-00D7-4807-8EA3-00D600E9001E}">
+      <formula1>etapas</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78750000000000009" bottom="0.78750000000000009" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00E400C3-00E3-4F0C-B70A-00D10055008B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>tipos_objetos</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>A2:A1210</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008A002F-00A1-4914-81A0-002A000200CC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>tipos_extracao</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>B2:B1210</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00ED00C5-00D7-4807-8EA3-00D600E9001E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>etapas</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>C2:C1210</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:BF30"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="2" width="23.140625"/>
-    <col customWidth="1" min="2" max="2" style="8" width="13.5703125"/>
-    <col customWidth="1" min="3" max="3" width="12.7109375"/>
+    <col min="1" max="1" width="23.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -1612,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.25">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
@@ -1623,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
+    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -1634,7 +1317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="14.25">
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
@@ -1642,10 +1325,10 @@
         <v>40</v>
       </c>
       <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -1656,7 +1339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="14.25">
+    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
@@ -1667,38 +1350,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
+    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" ht="14.25">
+    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
     </row>
-    <row r="30" ht="14.25">
+    <row r="30" spans="58:58" ht="14.25" x14ac:dyDescent="0.2">
       <c r="BF30" s="11"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78750000000000009" bottom="0.78750000000000009" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="10.7109375"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -1706,7 +1388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1714,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1722,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
@@ -1730,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
@@ -1738,7 +1420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
@@ -1746,7 +1428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
@@ -1754,7 +1436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
@@ -1762,7 +1444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
@@ -1770,7 +1452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
@@ -1778,7 +1460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
@@ -1786,7 +1468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
@@ -1794,7 +1476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
@@ -1802,32 +1484,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="49.85546875"/>
-    <col customWidth="1" hidden="1" min="2" max="2" style="8" width="25.85546875"/>
-    <col customWidth="1" min="3" max="3" width="11.7109375"/>
+    <col min="1" max="1" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1">
+    <row r="1" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -1838,7 +1519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>40</v>
       </c>
@@ -1846,78 +1527,69 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75">
-      <c r="A5" t="s">
+      <c r="B5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="15">
+        <v>45292</v>
+      </c>
+      <c r="O5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="14">
-        <v>45292</v>
-      </c>
-      <c r="O5" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" ht="12.75">
-      <c r="A6" t="s">
+      <c r="B6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="14">
-        <v>45322</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C6" s="15">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D9" s="8"/>
     </row>
-    <row r="15">
-      <c r="B15" s="15"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="14"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00770013-00F1-49EC-98A8-00BD00800034}">
+      <formula1>"Expediente,Plantão"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000014" footer="0.31496062000000014"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00770013-00F1-49EC-98A8-00BD00800034}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>"Expediente,Plantão"</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>